--- a/Automação_Gransoft.xlsx
+++ b/Automação_Gransoft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauan\OneDrive\Desktop\MeusProjetos\automacao_sicoob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA57D5-81EA-4DCD-BF9A-81D1D972BFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D174E-E426-4361-A35E-ED9FE80F76A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="857">
   <si>
     <t>Data Vencimento</t>
   </si>
@@ -47,166 +47,220 @@
     <t>2 - MARMORARIA SERTANEZINA</t>
   </si>
   <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.006.268-** Aluguel Terreno Em Frente Marmoraria</t>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>DÉB.CONV.EN.ELÉTRICA E GÁS CPFL 35302933</t>
+  </si>
+  <si>
+    <t>42084071</t>
+  </si>
+  <si>
+    <t>DÉB. PAGAMENTO DE BOLETO INTERCREDIS GFP Gap Stone 1784003</t>
+  </si>
+  <si>
+    <t>41966031</t>
+  </si>
+  <si>
+    <t>DÉB.CONV.EN.ELÉTRICA E GÁS</t>
+  </si>
+  <si>
+    <t>CPFL PAULI</t>
+  </si>
+  <si>
+    <t>12/08/2025</t>
+  </si>
+  <si>
+    <t>TARIFA COBRANÇA</t>
+  </si>
+  <si>
+    <t>3936715</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.068.034-** guarda loja 1 stz</t>
   </si>
   <si>
     <t>Pix</t>
   </si>
   <si>
+    <t>11/08/2025</t>
+  </si>
+  <si>
+    <t>DÉBITO PACOTE SERVIÇOS</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>DÉB.TÍTULO COBRANÇA</t>
+  </si>
+  <si>
+    <t>42165979</t>
+  </si>
+  <si>
     <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: NADIA NARI MENDES CHAGAS</t>
   </si>
   <si>
+    <t>42146933</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix 24.204.990 0001-48 Ssecon Cacambas</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.039.708-** limpeza tumulo</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.140.618-** Eppa Pedido 1850</t>
+  </si>
+  <si>
+    <t>DÉB.CONV.DEMAIS EMPRESAS</t>
+  </si>
+  <si>
+    <t>DBAUTO VIS</t>
+  </si>
+  <si>
+    <t>DÉB.TIT.COMPE EFETIVADO IPTU MANOEL CASTRO 145</t>
+  </si>
+  <si>
+    <t>41954388</t>
+  </si>
+  <si>
+    <t>DÉB.TIT.COMPE EFETIVADO Locprint 24766</t>
+  </si>
+  <si>
+    <t>41954316</t>
+  </si>
+  <si>
+    <t>DÉB. CONV. SEGUROS</t>
+  </si>
+  <si>
+    <t>TOKIO SEGU</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>DEBITO EMISSÃO TED DIF.TITULARIDADE Sertanezina Comércio de Pedras transferencia p santander sertanezina</t>
+  </si>
+  <si>
+    <t>42116644</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix 18.514.724 0001-19 Vagner Vento Cast Manut Equip</t>
+  </si>
+  <si>
+    <t>SAQUE NA AGENCIA TERMINAL.: 321402100004 AUT.: 00031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0003ATM   </t>
+  </si>
+  <si>
+    <t>SAQUE NA AGENCIA TERMINAL.: 321402100004 AUT.: 00030</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.001.948-** 13 parte ferias</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.193.668-** Emanuelly</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.477.358-** Juliana Paulino Miranda</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix 02.518.874 0001-60 Dinamico contabilidade</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.877.717-** frete Jackson 2de2</t>
+  </si>
+  <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.001.948-** Mariana Marcussi</t>
+  </si>
+  <si>
+    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: BOUTIQUE DA PEDRA COMERCIO DE MARM SIPAG_Ant._Visa SIPAG_Ant._Mastercard SIPAG_Ant._Elo</t>
+  </si>
+  <si>
+    <t>42090888</t>
+  </si>
+  <si>
+    <t>SAQUE NA AGENCIA TERMINAL.: 321402100005 AUT.: 00035</t>
+  </si>
+  <si>
+    <t>SAQUE NA AGENCIA TERMINAL.: 321402100005 AUT.: 00034</t>
+  </si>
+  <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.837.828-** rodrigo eletricista</t>
+  </si>
+  <si>
+    <t>SAQUE NA AGENCIA NOME: GISLENE P S LEITE CPF: 194.942.018-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80        </t>
+  </si>
+  <si>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.639.046-** frete ardosia pai e filho</t>
+  </si>
+  <si>
+    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: BOUTIQUE DA PEDRA COMERCIO DE MARM</t>
+  </si>
+  <si>
+    <t>42049233</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>DÉB.TRANSF.CONTAS DIF.TIT. INTERCREDIS FAV.: TIAGO COLOZIO Transferência Pix MARMORARIA SERTANEZINA - COMERCIO DE PED 41.843.437 0001-74 RT Tiago colozio</t>
+  </si>
+  <si>
+    <t>42014260</t>
+  </si>
+  <si>
+    <t>DÉB.TIT.COMPE EFETIVADO Caixa Habitação</t>
+  </si>
+  <si>
+    <t>41999911</t>
+  </si>
+  <si>
+    <t>41992858</t>
+  </si>
+  <si>
+    <t>TRANSF.REALIZADA PIX SICOOB FAV.: VN LOCACOES DE EQUIPAMENTOS PARA C Transferência Pix MARMORARIA SERTANEZINA - COMERCIO DE PED 41.843.437 0001-74 aluguel de andaime SIPAG_Cred._Visa</t>
+  </si>
+  <si>
+    <t>41987884</t>
+  </si>
+  <si>
+    <t>DÉB.TIT.COMPE EFETIVADO Ética Parcelamento 3/10</t>
+  </si>
+  <si>
+    <t>41954387</t>
+  </si>
+  <si>
+    <t>DÉB. PAGAMENTO DE BOLETO INTERCREDIS Gap Stone GFP 227903</t>
+  </si>
+  <si>
+    <t>41954315</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: F C F - COMERCIO DE MARMORES E GRA</t>
+  </si>
+  <si>
+    <t>41965640</t>
+  </si>
+  <si>
     <t>41954995</t>
   </si>
   <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: F C F - COMERCIO DE MARMORES E GRA</t>
-  </si>
-  <si>
-    <t>41965640</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO Ética Parcelamento 3/10</t>
-  </si>
-  <si>
-    <t>41954387</t>
-  </si>
-  <si>
-    <t>TRANSF.REALIZADA PIX SICOOB FAV.: VN LOCACOES DE EQUIPAMENTOS PARA C Transferência Pix MARMORARIA SERTANEZINA - COMERCIO DE PED 41.843.437 0001-74 aluguel de andaime</t>
-  </si>
-  <si>
-    <t>41987884</t>
-  </si>
-  <si>
-    <t>41992858</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO Caixa Habitação</t>
-  </si>
-  <si>
-    <t>41999911</t>
-  </si>
-  <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TIT. INTERCREDIS FAV.: TIAGO COLOZIO Transferência Pix MARMORARIA SERTANEZINA - COMERCIO DE PED 41.843.437 0001-74 RT Tiago colozio</t>
-  </si>
-  <si>
-    <t>42014260</t>
-  </si>
-  <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: BOUTIQUE DA PEDRA COMERCIO DE MARM</t>
-  </si>
-  <si>
-    <t>42049233</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA NOME: GISLENE P S LEITE CPF: 194.942.018-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80        </t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.837.828-** rodrigo eletricista</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.639.046-** frete ardosia pai e filho</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA TERMINAL.: 321402100005 AUT.: 00035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0003ATM   </t>
-  </si>
-  <si>
-    <t>42090888</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.001.948-** Mariana Marcussi</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.477.358-** Juliana Paulino Miranda</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix 02.518.874 0001-60 Dinamico contabilidade</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.193.668-** Emanuelly</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA TERMINAL.: 321402100004 AUT.: 00030</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA TERMINAL.: 321402100004 AUT.: 00031</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix 18.514.724 0001-19 Vagner Vento Cast Manut Equip</t>
-  </si>
-  <si>
-    <t>DEBITO EMISSÃO TED DIF.TITULARIDADE Sertanezina Comércio de Pedras transferencia p santander sertanezina</t>
-  </si>
-  <si>
-    <t>42116644</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.001.948-** 13 parte ferias</t>
-  </si>
-  <si>
-    <t>DÉBITO PACOTE SERVIÇOS</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>DÉB.TÍTULO COBRANÇA</t>
-  </si>
-  <si>
-    <t>42165979</t>
-  </si>
-  <si>
-    <t>42146933</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix 24.204.990 0001-48 Ssecon Cacambas</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.039.708-** limpeza tumulo</t>
-  </si>
-  <si>
-    <t>DÉB.CONV.DEMAIS EMPRESAS</t>
-  </si>
-  <si>
-    <t>DBAUTO VIS</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO IPTU MANOEL CASTRO 145</t>
-  </si>
-  <si>
-    <t>41954388</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO Locprint 24766</t>
-  </si>
-  <si>
-    <t>41954316</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.140.618-** Eppa Pedido 1850</t>
-  </si>
-  <si>
-    <t>TARIFA COBRANÇA</t>
-  </si>
-  <si>
-    <t>3936715</t>
-  </si>
-  <si>
-    <t>DÉB. PAGAMENTO DE BOLETO INTERCREDIS GFP Gap Stone 1784003</t>
-  </si>
-  <si>
-    <t>41966031</t>
-  </si>
-  <si>
-    <t>DÉB.CONV.EN.ELÉTRICA E GÁS CPFL 35302933</t>
-  </si>
-  <si>
-    <t>42084071</t>
+    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.006.268-** Aluguel Terreno Em Frente Marmoraria SIPAG_Deb._Elo Débito</t>
   </si>
   <si>
     <t>Nome</t>
@@ -2544,9 +2598,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2596,12 +2647,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2904,16 +2954,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="174.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="186.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2943,598 +2995,700 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45870</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>125.69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>600</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2460.73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45870</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>3000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45870</v>
-      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>3933</v>
+        <v>372.42</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45873</v>
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>279</v>
+        <v>7.2</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45873</v>
-      </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45873</v>
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>6335.32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
         <v>5000</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45873</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>1500</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>1962.77</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45873</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>833.34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45875</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>15000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>45875</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>5000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>45875</v>
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>1350</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>45875</v>
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>1728</v>
+        <v>5370.32</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>45876</v>
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14">
+        <v>949.3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>204.22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>336.96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17">
+        <v>25000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1460</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
         <v>500</v>
       </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>45876</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>30000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>45876</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>3710</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>3017</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>544</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>3162</v>
-      </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>45877</v>
+      <c r="A20" t="s">
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>1500</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>45877</v>
+      <c r="A21" t="s">
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C21">
+        <v>1055</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>3162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>3017</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>544</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>2981.8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>3710</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>30000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
         <v>500</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22">
-        <v>1460</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23">
-        <v>25000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>1055</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>43</v>
       </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26">
-        <v>6335.32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>1500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>1350</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
         <v>5000</v>
       </c>
-      <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28">
-        <v>1500</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>5370.32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31">
-        <v>949.3</v>
-      </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>45880</v>
+      <c r="A32" t="s">
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>204.22</v>
+        <v>1728</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>45880</v>
+      <c r="A33" t="s">
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>330</v>
+        <v>15000</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>45881</v>
+      <c r="A34" t="s">
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C34">
-        <v>7.2</v>
+        <v>833.34</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>45882</v>
+      <c r="A35" t="s">
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C35">
-        <v>2460.73</v>
+        <v>1962.77</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>45882</v>
+      <c r="A36" t="s">
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>125.69</v>
+        <v>5000</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>279</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>5291.84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>3933</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>3000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3546,4118 +3700,4124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E618"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="E54" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E57" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="E64" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="E68" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C70" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E71" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="C72" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="E76" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="E78" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C79" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E79" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C81" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="E81" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E85" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C86" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C87" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C88" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E90" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="E92" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="C93" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E93" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="E95" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E96" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C97" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E97" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="E98" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="E99" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="E100" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="E101" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C102" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="E102" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="C104" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E104" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="C105" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="E105" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C106" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="E106" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C107" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="E107" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="E108" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="C109" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E109" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="E110" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="C111" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="C112" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="E112" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C113" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E113" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C114" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E114" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C115" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="E115" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C116" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="E116" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="C117" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="E117" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="C118" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="E118" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="C119" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="E119" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C120" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="E120" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C121" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="E121" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C122" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="C123" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="C124" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="E124" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="E125" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="C126" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="E126" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="C127" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="E127" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="C128" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="E128" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="E129" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="C130" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="E130" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="C131" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E131" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C132" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="E132" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="C133" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E133" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="C134" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="E134" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="C135" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="C136" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="E136" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="C137" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="E137" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="C138" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="E138" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="C139" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="E139" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="C140" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="E140" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="E141" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C142" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="E142" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="C143" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E143" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="C144" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="E144" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="C145" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="E145" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="C146" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="E146" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C147" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="E147" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="C148" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="E148" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="C149" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="E149" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C150" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E150" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="C151" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="E151" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="C152" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="E152" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="E153" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="E154" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="E155" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="E156" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="E157" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="E158" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="E159" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="E160" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E161" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="E162" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="E163" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="E164" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="E165" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="E166" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="E167" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="E168" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="E169" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="E170" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="E171" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="E172" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="E173" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="E174" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="E175" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="E176" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="E177" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="E178" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="E179" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="E180" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="E181" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="E182" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="E183" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="E184" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="E185" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="E186" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="464" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E464" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
     </row>
     <row r="465" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E465" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
     </row>
     <row r="466" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E466" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
     </row>
     <row r="467" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E467" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
     </row>
     <row r="468" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E468" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
     </row>
     <row r="469" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E469" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
     </row>
     <row r="470" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E470" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="471" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E471" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="472" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E472" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
     </row>
     <row r="473" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E473" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
     </row>
     <row r="474" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E474" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="475" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E475" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="476" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E476" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
     </row>
     <row r="477" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E477" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
     </row>
     <row r="478" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E478" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="479" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E479" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
     <row r="480" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E480" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
     </row>
     <row r="481" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E481" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="482" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E482" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="483" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E483" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="484" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E484" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
     </row>
     <row r="485" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E485" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="486" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E486" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="487" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E487" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="488" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E488" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
     </row>
     <row r="489" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E489" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
     </row>
     <row r="490" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E490" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
     </row>
     <row r="491" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E491" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
     </row>
     <row r="492" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E492" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
     </row>
     <row r="493" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E493" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
     </row>
     <row r="494" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E494" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="495" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E495" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
     </row>
     <row r="496" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E496" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
     </row>
     <row r="497" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E497" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
     </row>
     <row r="498" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E498" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
     </row>
     <row r="499" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E499" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
     </row>
     <row r="500" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E500" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="501" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E501" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="502" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E502" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
     </row>
     <row r="503" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E503" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="504" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E504" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
     </row>
     <row r="505" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E505" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
     </row>
     <row r="506" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E506" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="507" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E507" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
     </row>
     <row r="508" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E508" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
     </row>
     <row r="509" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E509" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="510" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E510" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
     </row>
     <row r="511" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E511" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
     </row>
     <row r="512" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E512" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="513" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E513" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
     </row>
     <row r="514" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E514" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="515" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E515" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="516" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E516" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
     </row>
     <row r="517" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E517" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
     </row>
     <row r="518" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E518" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
     </row>
     <row r="519" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E519" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
     </row>
     <row r="520" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E520" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="521" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E521" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
     </row>
     <row r="522" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E522" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="523" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E523" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="524" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E524" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="525" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E525" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="526" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E526" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="527" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E527" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="528" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E528" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
     </row>
     <row r="529" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E529" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
     </row>
     <row r="530" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E530" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
     </row>
     <row r="531" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E531" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
     </row>
     <row r="532" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E532" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
     </row>
     <row r="533" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E533" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
     </row>
     <row r="534" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E534" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="535" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E535" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="536" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E536" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
     </row>
     <row r="537" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E537" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row r="538" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E538" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
     </row>
     <row r="539" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E539" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
     </row>
     <row r="540" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E540" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
     </row>
     <row r="541" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E541" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="542" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E542" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
     </row>
     <row r="543" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E543" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="544" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E544" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="545" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E545" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
     </row>
     <row r="546" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E546" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
     </row>
     <row r="547" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E547" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="548" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E548" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
     </row>
     <row r="549" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E549" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
     </row>
     <row r="550" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E550" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
     </row>
     <row r="551" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E551" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="552" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E552" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
     </row>
     <row r="553" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E553" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="554" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E554" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
     </row>
     <row r="555" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E555" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
     </row>
     <row r="556" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E556" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
     </row>
     <row r="557" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E557" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
     </row>
     <row r="558" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E558" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
     </row>
     <row r="559" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E559" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="560" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E560" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="561" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E561" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
     </row>
     <row r="562" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E562" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
     </row>
     <row r="563" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E563" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
     </row>
     <row r="564" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E564" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
     </row>
     <row r="565" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E565" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
     </row>
     <row r="566" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E566" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
     </row>
     <row r="567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E567" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
     </row>
     <row r="568" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E568" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="569" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E569" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
     </row>
     <row r="570" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E570" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
     </row>
     <row r="571" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E571" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="572" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E572" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="573" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E573" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
     </row>
     <row r="574" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E574" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="575" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E575" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
     </row>
     <row r="576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E576" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E577" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
     </row>
     <row r="578" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E578" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
     <row r="579" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E579" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
     </row>
     <row r="580" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E580" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E581" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
     </row>
     <row r="582" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E582" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
     <row r="583" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E583" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
     </row>
     <row r="584" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E584" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
     </row>
     <row r="585" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E585" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="586" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E586" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="587" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E587" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
     </row>
     <row r="588" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E588" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
     </row>
     <row r="589" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E589" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
     </row>
     <row r="590" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E590" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
     </row>
     <row r="591" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E591" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
     </row>
     <row r="592" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E592" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E593" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
     </row>
     <row r="594" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E594" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="595" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E595" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="596" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E596" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E597" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
     </row>
     <row r="598" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E598" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
     </row>
     <row r="599" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E599" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
     </row>
     <row r="600" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E600" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="601" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E601" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
     </row>
     <row r="602" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E602" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
     </row>
     <row r="603" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E603" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
     </row>
     <row r="604" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E604" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
     </row>
     <row r="605" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E605" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
     </row>
     <row r="606" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E606" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="607" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E607" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
     </row>
     <row r="608" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E608" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
     </row>
     <row r="609" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E609" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
     </row>
     <row r="610" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E610" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
     </row>
     <row r="611" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E611" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
     </row>
     <row r="612" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E612" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
     </row>
     <row r="613" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E613" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="614" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E614" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
     </row>
     <row r="615" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E615" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
     </row>
     <row r="616" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E616" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
     </row>
     <row r="617" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E617" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="618" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E618" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/Automação_Gransoft.xlsx
+++ b/Automação_Gransoft.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauan\OneDrive\Desktop\MeusProjetos\automacao_sicoob\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauan\OneDrive\Desktop\Projetos\app_extrato\automacao_sicoob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01D174E-E426-4361-A35E-ED9FE80F76A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65741AA-602A-4A7F-B4C6-B1320BDDD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Banco" sheetId="1" r:id="rId1"/>
+    <sheet name="Banco1" sheetId="1" r:id="rId1"/>
     <sheet name="Base de dados" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="784">
   <si>
     <t>Data Vencimento</t>
   </si>
@@ -42,225 +42,6 @@
   </si>
   <si>
     <t>Observação (opcional)</t>
-  </si>
-  <si>
-    <t>2 - MARMORARIA SERTANEZINA</t>
-  </si>
-  <si>
-    <t>13/08/2025</t>
-  </si>
-  <si>
-    <t>DÉB.CONV.EN.ELÉTRICA E GÁS CPFL 35302933</t>
-  </si>
-  <si>
-    <t>42084071</t>
-  </si>
-  <si>
-    <t>DÉB. PAGAMENTO DE BOLETO INTERCREDIS GFP Gap Stone 1784003</t>
-  </si>
-  <si>
-    <t>41966031</t>
-  </si>
-  <si>
-    <t>DÉB.CONV.EN.ELÉTRICA E GÁS</t>
-  </si>
-  <si>
-    <t>CPFL PAULI</t>
-  </si>
-  <si>
-    <t>12/08/2025</t>
-  </si>
-  <si>
-    <t>TARIFA COBRANÇA</t>
-  </si>
-  <si>
-    <t>3936715</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.068.034-** guarda loja 1 stz</t>
-  </si>
-  <si>
-    <t>Pix</t>
-  </si>
-  <si>
-    <t>11/08/2025</t>
-  </si>
-  <si>
-    <t>DÉBITO PACOTE SERVIÇOS</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>DÉB.TÍTULO COBRANÇA</t>
-  </si>
-  <si>
-    <t>42165979</t>
-  </si>
-  <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: NADIA NARI MENDES CHAGAS</t>
-  </si>
-  <si>
-    <t>42146933</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix 24.204.990 0001-48 Ssecon Cacambas</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.039.708-** limpeza tumulo</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.140.618-** Eppa Pedido 1850</t>
-  </si>
-  <si>
-    <t>DÉB.CONV.DEMAIS EMPRESAS</t>
-  </si>
-  <si>
-    <t>DBAUTO VIS</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO IPTU MANOEL CASTRO 145</t>
-  </si>
-  <si>
-    <t>41954388</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO Locprint 24766</t>
-  </si>
-  <si>
-    <t>41954316</t>
-  </si>
-  <si>
-    <t>DÉB. CONV. SEGUROS</t>
-  </si>
-  <si>
-    <t>TOKIO SEGU</t>
-  </si>
-  <si>
-    <t>08/08/2025</t>
-  </si>
-  <si>
-    <t>DEBITO EMISSÃO TED DIF.TITULARIDADE Sertanezina Comércio de Pedras transferencia p santander sertanezina</t>
-  </si>
-  <si>
-    <t>42116644</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix 18.514.724 0001-19 Vagner Vento Cast Manut Equip</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA TERMINAL.: 321402100004 AUT.: 00031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0003ATM   </t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA TERMINAL.: 321402100004 AUT.: 00030</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.001.948-** 13 parte ferias</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.193.668-** Emanuelly</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.477.358-** Juliana Paulino Miranda</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix 02.518.874 0001-60 Dinamico contabilidade</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.877.717-** frete Jackson 2de2</t>
-  </si>
-  <si>
-    <t>07/08/2025</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.001.948-** Mariana Marcussi</t>
-  </si>
-  <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: BOUTIQUE DA PEDRA COMERCIO DE MARM SIPAG_Ant._Visa SIPAG_Ant._Mastercard SIPAG_Ant._Elo</t>
-  </si>
-  <si>
-    <t>42090888</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA TERMINAL.: 321402100005 AUT.: 00035</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA TERMINAL.: 321402100005 AUT.: 00034</t>
-  </si>
-  <si>
-    <t>06/08/2025</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.837.828-** rodrigo eletricista</t>
-  </si>
-  <si>
-    <t>SAQUE NA AGENCIA NOME: GISLENE P S LEITE CPF: 194.942.018-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80        </t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.639.046-** frete ardosia pai e filho</t>
-  </si>
-  <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: BOUTIQUE DA PEDRA COMERCIO DE MARM</t>
-  </si>
-  <si>
-    <t>42049233</t>
-  </si>
-  <si>
-    <t>04/08/2025</t>
-  </si>
-  <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TIT. INTERCREDIS FAV.: TIAGO COLOZIO Transferência Pix MARMORARIA SERTANEZINA - COMERCIO DE PED 41.843.437 0001-74 RT Tiago colozio</t>
-  </si>
-  <si>
-    <t>42014260</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO Caixa Habitação</t>
-  </si>
-  <si>
-    <t>41999911</t>
-  </si>
-  <si>
-    <t>41992858</t>
-  </si>
-  <si>
-    <t>TRANSF.REALIZADA PIX SICOOB FAV.: VN LOCACOES DE EQUIPAMENTOS PARA C Transferência Pix MARMORARIA SERTANEZINA - COMERCIO DE PED 41.843.437 0001-74 aluguel de andaime SIPAG_Cred._Visa</t>
-  </si>
-  <si>
-    <t>41987884</t>
-  </si>
-  <si>
-    <t>DÉB.TIT.COMPE EFETIVADO Ética Parcelamento 3/10</t>
-  </si>
-  <si>
-    <t>41954387</t>
-  </si>
-  <si>
-    <t>DÉB. PAGAMENTO DE BOLETO INTERCREDIS Gap Stone GFP 227903</t>
-  </si>
-  <si>
-    <t>41954315</t>
-  </si>
-  <si>
-    <t>01/08/2025</t>
-  </si>
-  <si>
-    <t>DÉB.TRANSF.CONTAS DIF.TITULARIDADE FAV.: F C F - COMERCIO DE MARMORES E GRA</t>
-  </si>
-  <si>
-    <t>41965640</t>
-  </si>
-  <si>
-    <t>41954995</t>
-  </si>
-  <si>
-    <t>PIX EMITIDO OUTRA IF Pagamento Pix ***.006.268-** Aluguel Terreno Em Frente Marmoraria SIPAG_Deb._Elo Débito</t>
   </si>
   <si>
     <t>Nome</t>
@@ -2954,21 +2735,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection activeCell="H4" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="186.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="186.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2989,706 +2768,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>125.69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2460.73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>372.42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>7.2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>6335.32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>5000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>1500</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>330</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>5370.32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>949.3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>204.22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>336.96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17">
-        <v>25000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>1460</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>500</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>1500</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>1055</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22">
-        <v>3162</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23">
-        <v>3017</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>544</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>2981.8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26">
-        <v>3710</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27">
-        <v>30000</v>
-      </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
-        <v>1500</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30">
-        <v>1350</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31">
-        <v>5000</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <v>1728</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33">
-        <v>15000</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <v>833.34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35">
-        <v>1962.77</v>
-      </c>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36">
-        <v>5000</v>
-      </c>
-      <c r="E36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>159</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38">
-        <v>279</v>
-      </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39">
-        <v>5291.84</v>
-      </c>
-      <c r="E39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40">
-        <v>3933</v>
-      </c>
-      <c r="E40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41">
-        <v>3000</v>
-      </c>
-      <c r="E41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42">
-        <v>600</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3700,4124 +2779,4118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E618"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="97.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>187</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="E59" t="s">
-        <v>239</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E63" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="E65" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="E69" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>275</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="C74" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="E74" t="s">
-        <v>284</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
       <c r="E76" t="s">
-        <v>289</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="E77" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="E78" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="E79" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="E81" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="E89" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="C90" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="C91" t="s">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>261</v>
       </c>
       <c r="E94" t="s">
-        <v>335</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="C95" t="s">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="E95" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="C97" t="s">
-        <v>343</v>
+        <v>270</v>
       </c>
       <c r="E97" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>347</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="C99" t="s">
-        <v>349</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
       <c r="C100" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="E100" t="s">
-        <v>353</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
       <c r="C101" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="E101" t="s">
-        <v>356</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="C102" t="s">
-        <v>358</v>
+        <v>285</v>
       </c>
       <c r="E102" t="s">
-        <v>359</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="C103" t="s">
-        <v>361</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>362</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="E104" t="s">
-        <v>365</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="C105" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="E105" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="E106" t="s">
-        <v>371</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="C107" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="E108" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="E109" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="E110" t="s">
-        <v>382</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>384</v>
+        <v>311</v>
       </c>
       <c r="E111" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="C113" t="s">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="E113" t="s">
-        <v>390</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="C114" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="E114" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="C115" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="E115" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="C116" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="E116" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>400</v>
+        <v>327</v>
       </c>
       <c r="C117" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="E117" t="s">
-        <v>402</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="E118" t="s">
-        <v>404</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
       <c r="C119" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="E119" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="C120" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="E120" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="C121" t="s">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="E121" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="C122" t="s">
-        <v>414</v>
+        <v>341</v>
       </c>
       <c r="E122" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="E123" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="C124" t="s">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="E124" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="C125" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="E125" t="s">
-        <v>423</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
       <c r="C126" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="E126" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
       <c r="C127" t="s">
-        <v>428</v>
+        <v>355</v>
       </c>
       <c r="E127" t="s">
-        <v>429</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>430</v>
+        <v>357</v>
       </c>
       <c r="C128" t="s">
-        <v>431</v>
+        <v>358</v>
       </c>
       <c r="E128" t="s">
-        <v>432</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="C129" t="s">
-        <v>434</v>
+        <v>361</v>
       </c>
       <c r="E129" t="s">
-        <v>435</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="C130" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="E130" t="s">
-        <v>438</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>439</v>
+        <v>366</v>
       </c>
       <c r="C131" t="s">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="E131" t="s">
-        <v>441</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>442</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>443</v>
+        <v>370</v>
       </c>
       <c r="E132" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>445</v>
+        <v>372</v>
       </c>
       <c r="C133" t="s">
-        <v>446</v>
+        <v>373</v>
       </c>
       <c r="E133" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="C134" t="s">
-        <v>448</v>
+        <v>375</v>
       </c>
       <c r="E134" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="C135" t="s">
-        <v>449</v>
+        <v>376</v>
       </c>
       <c r="E135" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
       <c r="C136" t="s">
-        <v>450</v>
+        <v>377</v>
       </c>
       <c r="E136" t="s">
-        <v>451</v>
+        <v>378</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>452</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>453</v>
+        <v>380</v>
       </c>
       <c r="E137" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
       <c r="C138" t="s">
-        <v>456</v>
+        <v>383</v>
       </c>
       <c r="E138" t="s">
-        <v>457</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="C139" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="E139" t="s">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>460</v>
+        <v>387</v>
       </c>
       <c r="C140" t="s">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="E140" t="s">
-        <v>462</v>
+        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
       <c r="C141" t="s">
-        <v>464</v>
+        <v>391</v>
       </c>
       <c r="E141" t="s">
-        <v>465</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>466</v>
+        <v>393</v>
       </c>
       <c r="C142" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="E142" t="s">
-        <v>468</v>
+        <v>395</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>469</v>
+        <v>396</v>
       </c>
       <c r="C143" t="s">
-        <v>470</v>
+        <v>397</v>
       </c>
       <c r="E143" t="s">
-        <v>471</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="C144" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="E144" t="s">
-        <v>474</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>475</v>
+        <v>402</v>
       </c>
       <c r="C145" t="s">
-        <v>476</v>
+        <v>403</v>
       </c>
       <c r="E145" t="s">
-        <v>477</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>478</v>
+        <v>405</v>
       </c>
       <c r="C146" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="E146" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="C147" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="E147" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="C148" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="E148" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>484</v>
+        <v>411</v>
       </c>
       <c r="C149" t="s">
-        <v>485</v>
+        <v>412</v>
       </c>
       <c r="E149" t="s">
-        <v>486</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>487</v>
+        <v>414</v>
       </c>
       <c r="C150" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
       <c r="E150" t="s">
-        <v>489</v>
+        <v>416</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="C151" t="s">
-        <v>491</v>
+        <v>418</v>
       </c>
       <c r="E151" t="s">
-        <v>492</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>493</v>
+        <v>420</v>
       </c>
       <c r="C152" t="s">
-        <v>494</v>
+        <v>421</v>
       </c>
       <c r="E152" t="s">
-        <v>495</v>
+        <v>422</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
       <c r="E153" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>498</v>
+        <v>425</v>
       </c>
       <c r="E154" t="s">
-        <v>499</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="E155" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
       <c r="E156" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="E157" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>503</v>
+        <v>430</v>
       </c>
       <c r="E158" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>504</v>
+        <v>431</v>
       </c>
       <c r="E159" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
       <c r="E160" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>506</v>
+        <v>433</v>
       </c>
       <c r="E161" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
       <c r="E162" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="E163" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>509</v>
+        <v>436</v>
       </c>
       <c r="E164" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="E165" t="s">
-        <v>512</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>513</v>
+        <v>440</v>
       </c>
       <c r="E166" t="s">
-        <v>514</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>515</v>
+        <v>442</v>
       </c>
       <c r="E167" t="s">
-        <v>516</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>517</v>
+        <v>444</v>
       </c>
       <c r="E168" t="s">
-        <v>518</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>519</v>
+        <v>446</v>
       </c>
       <c r="E169" t="s">
-        <v>520</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>521</v>
+        <v>448</v>
       </c>
       <c r="E170" t="s">
-        <v>522</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>523</v>
+        <v>450</v>
       </c>
       <c r="E171" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="E172" t="s">
-        <v>526</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>527</v>
+        <v>454</v>
       </c>
       <c r="E173" t="s">
-        <v>528</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
       <c r="E174" t="s">
-        <v>530</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="E175" t="s">
-        <v>532</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="E176" t="s">
-        <v>534</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>535</v>
+        <v>462</v>
       </c>
       <c r="E177" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>537</v>
+        <v>464</v>
       </c>
       <c r="E178" t="s">
-        <v>538</v>
+        <v>465</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
       <c r="E179" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>541</v>
+        <v>468</v>
       </c>
       <c r="E180" t="s">
-        <v>542</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="E181" t="s">
-        <v>544</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
       <c r="E182" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>546</v>
+        <v>473</v>
       </c>
       <c r="E183" t="s">
-        <v>547</v>
+        <v>474</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>548</v>
+        <v>475</v>
       </c>
       <c r="E184" t="s">
-        <v>549</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="E185" t="s">
-        <v>551</v>
+        <v>478</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>552</v>
+        <v>479</v>
       </c>
       <c r="E186" t="s">
-        <v>553</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
-        <v>554</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
-        <v>555</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
-        <v>556</v>
+        <v>483</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
-        <v>557</v>
+        <v>484</v>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
-        <v>558</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
-        <v>559</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E197" t="s">
-        <v>560</v>
+        <v>487</v>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E198" t="s">
-        <v>561</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E199" t="s">
-        <v>237</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E200" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E201" t="s">
-        <v>562</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E202" t="s">
-        <v>563</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
-        <v>564</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
-        <v>565</v>
+        <v>492</v>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
-        <v>566</v>
+        <v>493</v>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E206" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E207" t="s">
-        <v>567</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
-        <v>568</v>
+        <v>495</v>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E210" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
-        <v>569</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
-        <v>570</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E213" t="s">
-        <v>571</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E214" t="s">
-        <v>572</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E215" t="s">
-        <v>573</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E216" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E217" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E218" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
-        <v>575</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
-        <v>576</v>
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E221" t="s">
-        <v>577</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E222" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E223" t="s">
-        <v>578</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E224" t="s">
-        <v>579</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E225" t="s">
-        <v>580</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E226" t="s">
-        <v>581</v>
+        <v>508</v>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E227" t="s">
-        <v>582</v>
+        <v>509</v>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E228" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E229" t="s">
-        <v>264</v>
+        <v>191</v>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E230" t="s">
-        <v>583</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E231" t="s">
-        <v>267</v>
+        <v>194</v>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E232" t="s">
-        <v>584</v>
+        <v>511</v>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E233" t="s">
-        <v>585</v>
+        <v>512</v>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E234" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E235" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E236" t="s">
-        <v>587</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E237" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E238" t="s">
-        <v>588</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E239" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E240" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E241" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E242" t="s">
-        <v>591</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E243" t="s">
-        <v>592</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E244" t="s">
-        <v>593</v>
+        <v>520</v>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" t="s">
-        <v>279</v>
+        <v>206</v>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" t="s">
-        <v>594</v>
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E247" t="s">
-        <v>595</v>
+        <v>522</v>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E248" t="s">
-        <v>596</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E249" t="s">
-        <v>597</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E250" t="s">
-        <v>598</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E251" t="s">
-        <v>599</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E252" t="s">
-        <v>600</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E253" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E254" t="s">
-        <v>601</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E255" t="s">
-        <v>602</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E256" t="s">
-        <v>603</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E257" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E258" t="s">
-        <v>604</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E259" t="s">
-        <v>605</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E260" t="s">
-        <v>606</v>
+        <v>533</v>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E261" t="s">
-        <v>607</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E262" t="s">
-        <v>608</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E263" t="s">
-        <v>609</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E264" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E265" t="s">
-        <v>610</v>
+        <v>537</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E266" t="s">
-        <v>611</v>
+        <v>538</v>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E267" t="s">
-        <v>612</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E268" t="s">
-        <v>613</v>
+        <v>540</v>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E269" t="s">
-        <v>614</v>
+        <v>541</v>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E270" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E271" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E272" t="s">
-        <v>615</v>
+        <v>542</v>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E273" t="s">
-        <v>616</v>
+        <v>543</v>
       </c>
     </row>
     <row r="274" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E274" t="s">
-        <v>617</v>
+        <v>544</v>
       </c>
     </row>
     <row r="275" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E275" t="s">
-        <v>618</v>
+        <v>545</v>
       </c>
     </row>
     <row r="276" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E276" t="s">
-        <v>619</v>
+        <v>546</v>
       </c>
     </row>
     <row r="277" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E277" t="s">
-        <v>620</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E278" t="s">
-        <v>621</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E279" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
     </row>
     <row r="280" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E280" t="s">
-        <v>622</v>
+        <v>549</v>
       </c>
     </row>
     <row r="281" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E281" t="s">
-        <v>623</v>
+        <v>550</v>
       </c>
     </row>
     <row r="282" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E282" t="s">
-        <v>624</v>
+        <v>551</v>
       </c>
     </row>
     <row r="283" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E283" t="s">
-        <v>625</v>
+        <v>552</v>
       </c>
     </row>
     <row r="284" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E284" t="s">
-        <v>626</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E285" t="s">
-        <v>627</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E286" t="s">
-        <v>628</v>
+        <v>555</v>
       </c>
     </row>
     <row r="287" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E287" t="s">
-        <v>629</v>
+        <v>556</v>
       </c>
     </row>
     <row r="288" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E288" t="s">
-        <v>630</v>
+        <v>557</v>
       </c>
     </row>
     <row r="289" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E289" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
     </row>
     <row r="290" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E290" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
     </row>
     <row r="291" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E291" t="s">
-        <v>631</v>
+        <v>558</v>
       </c>
     </row>
     <row r="292" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E292" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
     </row>
     <row r="293" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E293" t="s">
-        <v>632</v>
+        <v>559</v>
       </c>
     </row>
     <row r="294" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E294" t="s">
-        <v>633</v>
+        <v>560</v>
       </c>
     </row>
     <row r="295" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E295" t="s">
-        <v>634</v>
+        <v>561</v>
       </c>
     </row>
     <row r="296" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E296" t="s">
-        <v>635</v>
+        <v>562</v>
       </c>
     </row>
     <row r="297" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E297" t="s">
-        <v>636</v>
+        <v>563</v>
       </c>
     </row>
     <row r="298" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E298" t="s">
-        <v>637</v>
+        <v>564</v>
       </c>
     </row>
     <row r="299" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E299" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
     </row>
     <row r="300" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E300" t="s">
-        <v>639</v>
+        <v>566</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" t="s">
-        <v>311</v>
+        <v>238</v>
       </c>
     </row>
     <row r="302" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E302" t="s">
-        <v>640</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E303" t="s">
-        <v>641</v>
+        <v>568</v>
       </c>
     </row>
     <row r="304" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E304" t="s">
-        <v>642</v>
+        <v>569</v>
       </c>
     </row>
     <row r="305" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E305" t="s">
-        <v>643</v>
+        <v>570</v>
       </c>
     </row>
     <row r="306" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E306" t="s">
-        <v>644</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E307" t="s">
-        <v>645</v>
+        <v>572</v>
       </c>
     </row>
     <row r="308" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E308" t="s">
-        <v>646</v>
+        <v>573</v>
       </c>
     </row>
     <row r="309" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E309" t="s">
-        <v>647</v>
+        <v>574</v>
       </c>
     </row>
     <row r="310" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E310" t="s">
-        <v>648</v>
+        <v>575</v>
       </c>
     </row>
     <row r="311" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E311" t="s">
-        <v>649</v>
+        <v>576</v>
       </c>
     </row>
     <row r="312" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E312" t="s">
-        <v>650</v>
+        <v>577</v>
       </c>
     </row>
     <row r="313" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E313" t="s">
-        <v>651</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E314" t="s">
-        <v>652</v>
+        <v>579</v>
       </c>
     </row>
     <row r="315" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E315" t="s">
-        <v>653</v>
+        <v>580</v>
       </c>
     </row>
     <row r="316" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E316" t="s">
-        <v>654</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E317" t="s">
-        <v>655</v>
+        <v>582</v>
       </c>
     </row>
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" t="s">
-        <v>656</v>
+        <v>583</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E319" t="s">
-        <v>657</v>
+        <v>584</v>
       </c>
     </row>
     <row r="320" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E320" t="s">
-        <v>658</v>
+        <v>585</v>
       </c>
     </row>
     <row r="321" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E321" t="s">
-        <v>659</v>
+        <v>586</v>
       </c>
     </row>
     <row r="322" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E322" t="s">
-        <v>660</v>
+        <v>587</v>
       </c>
     </row>
     <row r="323" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E323" t="s">
-        <v>661</v>
+        <v>588</v>
       </c>
     </row>
     <row r="324" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E324" t="s">
-        <v>662</v>
+        <v>589</v>
       </c>
     </row>
     <row r="325" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E325" t="s">
-        <v>663</v>
+        <v>590</v>
       </c>
     </row>
     <row r="326" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E326" t="s">
-        <v>664</v>
+        <v>591</v>
       </c>
     </row>
     <row r="327" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E327" t="s">
-        <v>665</v>
+        <v>592</v>
       </c>
     </row>
     <row r="328" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E328" t="s">
-        <v>666</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E329" t="s">
-        <v>667</v>
+        <v>594</v>
       </c>
     </row>
     <row r="330" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E330" t="s">
-        <v>668</v>
+        <v>595</v>
       </c>
     </row>
     <row r="331" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E331" t="s">
-        <v>669</v>
+        <v>596</v>
       </c>
     </row>
     <row r="332" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E332" t="s">
-        <v>670</v>
+        <v>597</v>
       </c>
     </row>
     <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" t="s">
-        <v>671</v>
+        <v>598</v>
       </c>
     </row>
     <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" t="s">
-        <v>672</v>
+        <v>599</v>
       </c>
     </row>
     <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" t="s">
-        <v>673</v>
+        <v>600</v>
       </c>
     </row>
     <row r="336" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E336" t="s">
-        <v>674</v>
+        <v>601</v>
       </c>
     </row>
     <row r="337" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E337" t="s">
-        <v>675</v>
+        <v>602</v>
       </c>
     </row>
     <row r="338" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E338" t="s">
-        <v>676</v>
+        <v>603</v>
       </c>
     </row>
     <row r="339" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E339" t="s">
-        <v>677</v>
+        <v>604</v>
       </c>
     </row>
     <row r="340" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E340" t="s">
-        <v>678</v>
+        <v>605</v>
       </c>
     </row>
     <row r="341" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E341" t="s">
-        <v>679</v>
+        <v>606</v>
       </c>
     </row>
     <row r="342" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E342" t="s">
-        <v>680</v>
+        <v>607</v>
       </c>
     </row>
     <row r="343" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E343" t="s">
-        <v>681</v>
+        <v>608</v>
       </c>
     </row>
     <row r="344" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E344" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
     </row>
     <row r="345" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
     </row>
     <row r="346" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
-        <v>682</v>
+        <v>609</v>
       </c>
     </row>
     <row r="347" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
-        <v>683</v>
+        <v>610</v>
       </c>
     </row>
     <row r="348" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
-        <v>684</v>
+        <v>611</v>
       </c>
     </row>
     <row r="349" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E349" t="s">
-        <v>685</v>
+        <v>612</v>
       </c>
     </row>
     <row r="350" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E350" t="s">
-        <v>686</v>
+        <v>613</v>
       </c>
     </row>
     <row r="351" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E351" t="s">
-        <v>687</v>
+        <v>614</v>
       </c>
     </row>
     <row r="352" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E352" t="s">
-        <v>688</v>
+        <v>615</v>
       </c>
     </row>
     <row r="353" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E353" t="s">
-        <v>689</v>
+        <v>616</v>
       </c>
     </row>
     <row r="354" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E354" t="s">
-        <v>690</v>
+        <v>617</v>
       </c>
     </row>
     <row r="355" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E355" t="s">
-        <v>691</v>
+        <v>618</v>
       </c>
     </row>
     <row r="356" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E356" t="s">
-        <v>692</v>
+        <v>619</v>
       </c>
     </row>
     <row r="357" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E357" t="s">
-        <v>693</v>
+        <v>620</v>
       </c>
     </row>
     <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" t="s">
-        <v>694</v>
+        <v>621</v>
       </c>
     </row>
     <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" t="s">
-        <v>695</v>
+        <v>622</v>
       </c>
     </row>
     <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" t="s">
-        <v>696</v>
+        <v>623</v>
       </c>
     </row>
     <row r="361" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E361" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
     </row>
     <row r="362" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E362" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
     </row>
     <row r="363" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E363" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
     </row>
     <row r="364" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E364" t="s">
-        <v>697</v>
+        <v>624</v>
       </c>
     </row>
     <row r="365" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E365" t="s">
-        <v>698</v>
+        <v>625</v>
       </c>
     </row>
     <row r="366" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E366" t="s">
-        <v>699</v>
+        <v>626</v>
       </c>
     </row>
     <row r="367" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E367" t="s">
-        <v>700</v>
+        <v>627</v>
       </c>
     </row>
     <row r="368" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E368" t="s">
-        <v>701</v>
+        <v>628</v>
       </c>
     </row>
     <row r="369" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E369" t="s">
-        <v>702</v>
+        <v>629</v>
       </c>
     </row>
     <row r="370" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E370" t="s">
-        <v>703</v>
+        <v>630</v>
       </c>
     </row>
     <row r="371" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E371" t="s">
-        <v>704</v>
+        <v>631</v>
       </c>
     </row>
     <row r="372" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E372" t="s">
-        <v>705</v>
+        <v>632</v>
       </c>
     </row>
     <row r="373" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E373" t="s">
-        <v>706</v>
+        <v>633</v>
       </c>
     </row>
     <row r="374" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E374" t="s">
-        <v>707</v>
+        <v>634</v>
       </c>
     </row>
     <row r="375" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
     </row>
     <row r="376" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E377" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
     </row>
     <row r="378" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E378" t="s">
-        <v>708</v>
+        <v>635</v>
       </c>
     </row>
     <row r="379" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E379" t="s">
-        <v>709</v>
+        <v>636</v>
       </c>
     </row>
     <row r="380" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E380" t="s">
-        <v>710</v>
+        <v>637</v>
       </c>
     </row>
     <row r="381" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E381" t="s">
-        <v>711</v>
+        <v>638</v>
       </c>
     </row>
     <row r="382" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E382" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
     </row>
     <row r="383" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E383" t="s">
-        <v>712</v>
+        <v>639</v>
       </c>
     </row>
     <row r="384" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E384" t="s">
-        <v>713</v>
+        <v>640</v>
       </c>
     </row>
     <row r="385" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E385" t="s">
-        <v>714</v>
+        <v>641</v>
       </c>
     </row>
     <row r="386" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E386" t="s">
-        <v>715</v>
+        <v>642</v>
       </c>
     </row>
     <row r="387" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E387" t="s">
-        <v>716</v>
+        <v>643</v>
       </c>
     </row>
     <row r="388" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E388" t="s">
-        <v>717</v>
+        <v>644</v>
       </c>
     </row>
     <row r="389" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E389" t="s">
-        <v>718</v>
+        <v>645</v>
       </c>
     </row>
     <row r="390" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E390" t="s">
-        <v>339</v>
+        <v>266</v>
       </c>
     </row>
     <row r="391" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E391" t="s">
-        <v>719</v>
+        <v>646</v>
       </c>
     </row>
     <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" t="s">
-        <v>720</v>
+        <v>647</v>
       </c>
     </row>
     <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" t="s">
-        <v>721</v>
+        <v>648</v>
       </c>
     </row>
     <row r="394" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E394" t="s">
-        <v>722</v>
+        <v>649</v>
       </c>
     </row>
     <row r="395" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E395" t="s">
-        <v>723</v>
+        <v>650</v>
       </c>
     </row>
     <row r="396" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E396" t="s">
-        <v>724</v>
+        <v>651</v>
       </c>
     </row>
     <row r="397" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E397" t="s">
-        <v>725</v>
+        <v>652</v>
       </c>
     </row>
     <row r="398" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E398" t="s">
-        <v>726</v>
+        <v>653</v>
       </c>
     </row>
     <row r="399" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E399" t="s">
-        <v>727</v>
+        <v>654</v>
       </c>
     </row>
     <row r="400" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E400" t="s">
-        <v>728</v>
+        <v>655</v>
       </c>
     </row>
     <row r="401" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E401" t="s">
-        <v>729</v>
+        <v>656</v>
       </c>
     </row>
     <row r="402" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E402" t="s">
-        <v>730</v>
+        <v>657</v>
       </c>
     </row>
     <row r="403" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E403" t="s">
-        <v>731</v>
+        <v>658</v>
       </c>
     </row>
     <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" t="s">
-        <v>732</v>
+        <v>659</v>
       </c>
     </row>
     <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" t="s">
-        <v>733</v>
+        <v>660</v>
       </c>
     </row>
     <row r="406" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E406" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
     </row>
     <row r="407" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E407" t="s">
-        <v>734</v>
+        <v>661</v>
       </c>
     </row>
     <row r="408" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E408" t="s">
-        <v>735</v>
+        <v>662</v>
       </c>
     </row>
     <row r="409" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E409" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
     </row>
     <row r="410" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E410" t="s">
-        <v>736</v>
+        <v>663</v>
       </c>
     </row>
     <row r="411" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E411" t="s">
-        <v>737</v>
+        <v>664</v>
       </c>
     </row>
     <row r="412" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E412" t="s">
-        <v>348</v>
+        <v>275</v>
       </c>
     </row>
     <row r="413" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E413" t="s">
-        <v>351</v>
+        <v>278</v>
       </c>
     </row>
     <row r="414" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E414" t="s">
-        <v>738</v>
+        <v>665</v>
       </c>
     </row>
     <row r="415" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E415" t="s">
-        <v>739</v>
+        <v>666</v>
       </c>
     </row>
     <row r="416" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E416" t="s">
-        <v>354</v>
+        <v>281</v>
       </c>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E417" t="s">
-        <v>357</v>
+        <v>284</v>
       </c>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E418" t="s">
-        <v>740</v>
+        <v>667</v>
       </c>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E419" t="s">
-        <v>741</v>
+        <v>668</v>
       </c>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E420" t="s">
-        <v>742</v>
+        <v>669</v>
       </c>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E421" t="s">
-        <v>743</v>
+        <v>670</v>
       </c>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E422" t="s">
-        <v>744</v>
+        <v>671</v>
       </c>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E423" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E424" t="s">
-        <v>745</v>
+        <v>672</v>
       </c>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E425" t="s">
-        <v>746</v>
+        <v>673</v>
       </c>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E426" t="s">
-        <v>747</v>
+        <v>674</v>
       </c>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E427" t="s">
-        <v>363</v>
+        <v>290</v>
       </c>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E428" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E429" t="s">
-        <v>748</v>
+        <v>675</v>
       </c>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E430" t="s">
-        <v>369</v>
+        <v>296</v>
       </c>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E431" t="s">
-        <v>749</v>
+        <v>676</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E432" t="s">
-        <v>750</v>
+        <v>677</v>
       </c>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E433" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E434" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E435" t="s">
-        <v>751</v>
+        <v>678</v>
       </c>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E436" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E437" t="s">
-        <v>752</v>
+        <v>679</v>
       </c>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E438" t="s">
-        <v>753</v>
+        <v>680</v>
       </c>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E439" t="s">
-        <v>383</v>
+        <v>310</v>
       </c>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E440" t="s">
-        <v>385</v>
+        <v>312</v>
       </c>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E441" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E442" t="s">
-        <v>754</v>
+        <v>681</v>
       </c>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E443" t="s">
-        <v>755</v>
+        <v>682</v>
       </c>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E444" t="s">
-        <v>756</v>
+        <v>683</v>
       </c>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E445" t="s">
-        <v>757</v>
+        <v>684</v>
       </c>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E446" t="s">
-        <v>758</v>
+        <v>685</v>
       </c>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E447" t="s">
-        <v>759</v>
+        <v>686</v>
       </c>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E448" t="s">
-        <v>760</v>
+        <v>687</v>
       </c>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E449" t="s">
-        <v>760</v>
+        <v>687</v>
       </c>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E450" t="s">
-        <v>760</v>
+        <v>687</v>
       </c>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E451" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E452" t="s">
-        <v>761</v>
+        <v>688</v>
       </c>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E453" t="s">
-        <v>762</v>
+        <v>689</v>
       </c>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E454" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E455" t="s">
-        <v>763</v>
+        <v>690</v>
       </c>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E456" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E457" t="s">
-        <v>764</v>
+        <v>691</v>
       </c>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E458" t="s">
-        <v>765</v>
+        <v>692</v>
       </c>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E459" t="s">
-        <v>400</v>
+        <v>327</v>
       </c>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E460" t="s">
-        <v>766</v>
+        <v>693</v>
       </c>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E461" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E462" t="s">
-        <v>767</v>
+        <v>694</v>
       </c>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E463" t="s">
-        <v>768</v>
+        <v>695</v>
       </c>
     </row>
     <row r="464" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E464" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="465" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E465" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
     </row>
     <row r="466" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E466" t="s">
-        <v>770</v>
+        <v>697</v>
       </c>
     </row>
     <row r="467" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E467" t="s">
-        <v>771</v>
+        <v>698</v>
       </c>
     </row>
     <row r="468" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E468" t="s">
-        <v>772</v>
+        <v>699</v>
       </c>
     </row>
     <row r="469" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E469" t="s">
-        <v>773</v>
+        <v>700</v>
       </c>
     </row>
     <row r="470" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E470" t="s">
-        <v>405</v>
+        <v>332</v>
       </c>
     </row>
     <row r="471" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E471" t="s">
-        <v>407</v>
+        <v>334</v>
       </c>
     </row>
     <row r="472" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E472" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
     </row>
     <row r="473" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E473" t="s">
-        <v>413</v>
+        <v>340</v>
       </c>
     </row>
     <row r="474" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E474" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
     </row>
     <row r="475" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E475" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
     </row>
     <row r="476" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E476" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
     </row>
     <row r="477" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E477" t="s">
-        <v>424</v>
+        <v>351</v>
       </c>
     </row>
     <row r="478" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E478" t="s">
-        <v>427</v>
+        <v>354</v>
       </c>
     </row>
     <row r="479" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E479" t="s">
-        <v>430</v>
+        <v>357</v>
       </c>
     </row>
     <row r="480" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E480" t="s">
-        <v>433</v>
+        <v>360</v>
       </c>
     </row>
     <row r="481" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E481" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
     </row>
     <row r="482" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E482" t="s">
-        <v>439</v>
+        <v>366</v>
       </c>
     </row>
     <row r="483" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E483" t="s">
-        <v>442</v>
+        <v>369</v>
       </c>
     </row>
     <row r="484" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E484" t="s">
-        <v>445</v>
+        <v>372</v>
       </c>
     </row>
     <row r="485" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E485" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
     </row>
     <row r="486" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E486" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
     </row>
     <row r="487" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E487" t="s">
-        <v>447</v>
+        <v>374</v>
       </c>
     </row>
     <row r="488" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E488" t="s">
-        <v>774</v>
+        <v>701</v>
       </c>
     </row>
     <row r="489" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E489" t="s">
-        <v>775</v>
+        <v>702</v>
       </c>
     </row>
     <row r="490" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E490" t="s">
-        <v>452</v>
+        <v>379</v>
       </c>
     </row>
     <row r="491" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E491" t="s">
-        <v>776</v>
+        <v>703</v>
       </c>
     </row>
     <row r="492" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E492" t="s">
-        <v>777</v>
+        <v>704</v>
       </c>
     </row>
     <row r="493" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E493" t="s">
-        <v>455</v>
+        <v>382</v>
       </c>
     </row>
     <row r="494" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E494" t="s">
-        <v>458</v>
+        <v>385</v>
       </c>
     </row>
     <row r="495" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E495" t="s">
-        <v>778</v>
+        <v>705</v>
       </c>
     </row>
     <row r="496" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E496" t="s">
-        <v>460</v>
+        <v>387</v>
       </c>
     </row>
     <row r="497" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E497" t="s">
-        <v>779</v>
+        <v>706</v>
       </c>
     </row>
     <row r="498" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E498" t="s">
-        <v>780</v>
+        <v>707</v>
       </c>
     </row>
     <row r="499" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E499" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="500" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E500" t="s">
-        <v>466</v>
+        <v>393</v>
       </c>
     </row>
     <row r="501" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E501" t="s">
-        <v>469</v>
+        <v>396</v>
       </c>
     </row>
     <row r="502" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E502" t="s">
-        <v>472</v>
+        <v>399</v>
       </c>
     </row>
     <row r="503" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E503" t="s">
-        <v>475</v>
+        <v>402</v>
       </c>
     </row>
     <row r="504" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E504" t="s">
-        <v>781</v>
+        <v>708</v>
       </c>
     </row>
     <row r="505" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E505" t="s">
-        <v>782</v>
+        <v>709</v>
       </c>
     </row>
     <row r="506" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E506" t="s">
-        <v>478</v>
+        <v>405</v>
       </c>
     </row>
     <row r="507" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E507" t="s">
-        <v>783</v>
+        <v>710</v>
       </c>
     </row>
     <row r="508" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E508" t="s">
-        <v>784</v>
+        <v>711</v>
       </c>
     </row>
     <row r="509" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E509" t="s">
-        <v>785</v>
+        <v>712</v>
       </c>
     </row>
     <row r="510" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E510" t="s">
-        <v>786</v>
+        <v>713</v>
       </c>
     </row>
     <row r="511" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E511" t="s">
-        <v>787</v>
+        <v>714</v>
       </c>
     </row>
     <row r="512" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E512" t="s">
-        <v>788</v>
+        <v>715</v>
       </c>
     </row>
     <row r="513" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E513" t="s">
-        <v>789</v>
+        <v>716</v>
       </c>
     </row>
     <row r="514" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E514" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
     </row>
     <row r="515" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E515" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
     </row>
     <row r="516" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E516" t="s">
-        <v>790</v>
+        <v>717</v>
       </c>
     </row>
     <row r="517" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E517" t="s">
-        <v>791</v>
+        <v>718</v>
       </c>
     </row>
     <row r="518" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E518" t="s">
-        <v>792</v>
+        <v>719</v>
       </c>
     </row>
     <row r="519" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E519" t="s">
-        <v>793</v>
+        <v>720</v>
       </c>
     </row>
     <row r="520" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E520" t="s">
-        <v>794</v>
+        <v>721</v>
       </c>
     </row>
     <row r="521" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E521" t="s">
-        <v>795</v>
+        <v>722</v>
       </c>
     </row>
     <row r="522" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E522" t="s">
-        <v>484</v>
+        <v>411</v>
       </c>
     </row>
     <row r="523" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E523" t="s">
-        <v>487</v>
+        <v>414</v>
       </c>
     </row>
     <row r="524" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E524" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
     </row>
     <row r="525" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E525" t="s">
-        <v>493</v>
+        <v>420</v>
       </c>
     </row>
     <row r="526" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E526" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
     </row>
     <row r="527" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E527" t="s">
-        <v>496</v>
+        <v>423</v>
       </c>
     </row>
     <row r="528" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E528" t="s">
-        <v>498</v>
+        <v>425</v>
       </c>
     </row>
     <row r="529" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E529" t="s">
-        <v>796</v>
+        <v>723</v>
       </c>
     </row>
     <row r="530" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E530" t="s">
-        <v>797</v>
+        <v>724</v>
       </c>
     </row>
     <row r="531" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E531" t="s">
-        <v>798</v>
+        <v>725</v>
       </c>
     </row>
     <row r="532" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E532" t="s">
-        <v>500</v>
+        <v>427</v>
       </c>
     </row>
     <row r="533" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E533" t="s">
-        <v>799</v>
+        <v>726</v>
       </c>
     </row>
     <row r="534" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E534" t="s">
-        <v>501</v>
+        <v>428</v>
       </c>
     </row>
     <row r="535" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E535" t="s">
-        <v>800</v>
+        <v>727</v>
       </c>
     </row>
     <row r="536" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E536" t="s">
-        <v>801</v>
+        <v>728</v>
       </c>
     </row>
     <row r="537" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E537" t="s">
-        <v>802</v>
+        <v>729</v>
       </c>
     </row>
     <row r="538" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E538" t="s">
-        <v>803</v>
+        <v>730</v>
       </c>
     </row>
     <row r="539" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E539" t="s">
-        <v>804</v>
+        <v>731</v>
       </c>
     </row>
     <row r="540" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E540" t="s">
-        <v>805</v>
+        <v>732</v>
       </c>
     </row>
     <row r="541" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E541" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
     </row>
     <row r="542" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E542" t="s">
-        <v>806</v>
+        <v>733</v>
       </c>
     </row>
     <row r="543" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E543" t="s">
-        <v>807</v>
+        <v>734</v>
       </c>
     </row>
     <row r="544" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E544" t="s">
-        <v>503</v>
+        <v>430</v>
       </c>
     </row>
     <row r="545" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E545" t="s">
-        <v>504</v>
+        <v>431</v>
       </c>
     </row>
     <row r="546" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E546" t="s">
-        <v>808</v>
+        <v>735</v>
       </c>
     </row>
     <row r="547" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E547" t="s">
-        <v>505</v>
+        <v>432</v>
       </c>
     </row>
     <row r="548" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E548" t="s">
-        <v>809</v>
+        <v>736</v>
       </c>
     </row>
     <row r="549" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E549" t="s">
-        <v>810</v>
+        <v>737</v>
       </c>
     </row>
     <row r="550" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E550" t="s">
-        <v>507</v>
+        <v>434</v>
       </c>
     </row>
     <row r="551" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E551" t="s">
-        <v>508</v>
+        <v>435</v>
       </c>
     </row>
     <row r="552" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E552" t="s">
-        <v>811</v>
+        <v>738</v>
       </c>
     </row>
     <row r="553" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E553" t="s">
-        <v>812</v>
+        <v>739</v>
       </c>
     </row>
     <row r="554" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E554" t="s">
-        <v>813</v>
+        <v>740</v>
       </c>
     </row>
     <row r="555" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E555" t="s">
-        <v>814</v>
+        <v>741</v>
       </c>
     </row>
     <row r="556" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E556" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
     </row>
     <row r="557" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E557" t="s">
-        <v>815</v>
+        <v>742</v>
       </c>
     </row>
     <row r="558" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E558" t="s">
-        <v>816</v>
+        <v>743</v>
       </c>
     </row>
     <row r="559" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E559" t="s">
-        <v>515</v>
+        <v>442</v>
       </c>
     </row>
     <row r="560" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E560" t="s">
-        <v>517</v>
+        <v>444</v>
       </c>
     </row>
     <row r="561" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E561" t="s">
-        <v>817</v>
+        <v>744</v>
       </c>
     </row>
     <row r="562" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E562" t="s">
-        <v>818</v>
+        <v>745</v>
       </c>
     </row>
     <row r="563" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E563" t="s">
-        <v>819</v>
+        <v>746</v>
       </c>
     </row>
     <row r="564" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E564" t="s">
-        <v>820</v>
+        <v>747</v>
       </c>
     </row>
     <row r="565" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E565" t="s">
-        <v>821</v>
+        <v>748</v>
       </c>
     </row>
     <row r="566" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E566" t="s">
-        <v>521</v>
+        <v>448</v>
       </c>
     </row>
     <row r="567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E567" t="s">
-        <v>822</v>
+        <v>749</v>
       </c>
     </row>
     <row r="568" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E568" t="s">
-        <v>823</v>
+        <v>750</v>
       </c>
     </row>
     <row r="569" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E569" t="s">
-        <v>523</v>
+        <v>450</v>
       </c>
     </row>
     <row r="570" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E570" t="s">
-        <v>824</v>
+        <v>751</v>
       </c>
     </row>
     <row r="571" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E571" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
     </row>
     <row r="572" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E572" t="s">
-        <v>825</v>
+        <v>752</v>
       </c>
     </row>
     <row r="573" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E573" t="s">
-        <v>826</v>
+        <v>753</v>
       </c>
     </row>
     <row r="574" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E574" t="s">
-        <v>827</v>
+        <v>754</v>
       </c>
     </row>
     <row r="575" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E575" t="s">
-        <v>828</v>
+        <v>755</v>
       </c>
     </row>
     <row r="576" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E576" t="s">
-        <v>828</v>
+        <v>755</v>
       </c>
     </row>
     <row r="577" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E577" t="s">
-        <v>829</v>
+        <v>756</v>
       </c>
     </row>
     <row r="578" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E578" t="s">
-        <v>527</v>
+        <v>454</v>
       </c>
     </row>
     <row r="579" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E579" t="s">
-        <v>830</v>
+        <v>757</v>
       </c>
     </row>
     <row r="580" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E580" t="s">
-        <v>529</v>
+        <v>456</v>
       </c>
     </row>
     <row r="581" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E581" t="s">
-        <v>831</v>
+        <v>758</v>
       </c>
     </row>
     <row r="582" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E582" t="s">
-        <v>832</v>
+        <v>759</v>
       </c>
     </row>
     <row r="583" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E583" t="s">
-        <v>833</v>
+        <v>760</v>
       </c>
     </row>
     <row r="584" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E584" t="s">
-        <v>834</v>
+        <v>761</v>
       </c>
     </row>
     <row r="585" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E585" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
     </row>
     <row r="586" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E586" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
     </row>
     <row r="587" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E587" t="s">
-        <v>835</v>
+        <v>762</v>
       </c>
     </row>
     <row r="588" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E588" t="s">
-        <v>836</v>
+        <v>763</v>
       </c>
     </row>
     <row r="589" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E589" t="s">
-        <v>837</v>
+        <v>764</v>
       </c>
     </row>
     <row r="590" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E590" t="s">
-        <v>838</v>
+        <v>765</v>
       </c>
     </row>
     <row r="591" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E591" t="s">
-        <v>535</v>
+        <v>462</v>
       </c>
     </row>
     <row r="592" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E592" t="s">
-        <v>537</v>
+        <v>464</v>
       </c>
     </row>
     <row r="593" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E593" t="s">
-        <v>539</v>
+        <v>466</v>
       </c>
     </row>
     <row r="594" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E594" t="s">
-        <v>541</v>
+        <v>468</v>
       </c>
     </row>
     <row r="595" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E595" t="s">
-        <v>543</v>
+        <v>470</v>
       </c>
     </row>
     <row r="596" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E596" t="s">
-        <v>839</v>
+        <v>766</v>
       </c>
     </row>
     <row r="597" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E597" t="s">
-        <v>840</v>
+        <v>767</v>
       </c>
     </row>
     <row r="598" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E598" t="s">
-        <v>841</v>
+        <v>768</v>
       </c>
     </row>
     <row r="599" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E599" t="s">
-        <v>842</v>
+        <v>769</v>
       </c>
     </row>
     <row r="600" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E600" t="s">
-        <v>545</v>
+        <v>472</v>
       </c>
     </row>
     <row r="601" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E601" t="s">
-        <v>843</v>
+        <v>770</v>
       </c>
     </row>
     <row r="602" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E602" t="s">
-        <v>844</v>
+        <v>771</v>
       </c>
     </row>
     <row r="603" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E603" t="s">
-        <v>845</v>
+        <v>772</v>
       </c>
     </row>
     <row r="604" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E604" t="s">
-        <v>846</v>
+        <v>773</v>
       </c>
     </row>
     <row r="605" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E605" t="s">
-        <v>546</v>
+        <v>473</v>
       </c>
     </row>
     <row r="606" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E606" t="s">
-        <v>548</v>
+        <v>475</v>
       </c>
     </row>
     <row r="607" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E607" t="s">
-        <v>847</v>
+        <v>774</v>
       </c>
     </row>
     <row r="608" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E608" t="s">
-        <v>848</v>
+        <v>775</v>
       </c>
     </row>
     <row r="609" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E609" t="s">
-        <v>849</v>
+        <v>776</v>
       </c>
     </row>
     <row r="610" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E610" t="s">
-        <v>850</v>
+        <v>777</v>
       </c>
     </row>
     <row r="611" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E611" t="s">
-        <v>851</v>
+        <v>778</v>
       </c>
     </row>
     <row r="612" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E612" t="s">
-        <v>852</v>
+        <v>779</v>
       </c>
     </row>
     <row r="613" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E613" t="s">
-        <v>853</v>
+        <v>780</v>
       </c>
     </row>
     <row r="614" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E614" t="s">
-        <v>854</v>
+        <v>781</v>
       </c>
     </row>
     <row r="615" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E615" t="s">
-        <v>855</v>
+        <v>782</v>
       </c>
     </row>
     <row r="616" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E616" t="s">
-        <v>856</v>
+        <v>783</v>
       </c>
     </row>
     <row r="617" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E617" t="s">
-        <v>550</v>
+        <v>477</v>
       </c>
     </row>
     <row r="618" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E618" t="s">
-        <v>552</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/Automação_Gransoft.xlsx
+++ b/Automação_Gransoft.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kauan\OneDrive\Desktop\Projetos\app_extrato\automacao_sicoob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65741AA-602A-4A7F-B4C6-B1320BDDD1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9B7B25-9D36-4442-8966-1409E8245191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Banco1" sheetId="1" r:id="rId1"/>
+    <sheet name="Banco" sheetId="1" r:id="rId1"/>
     <sheet name="Base de dados" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -2401,7 +2401,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2424,14 +2424,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2738,35 +2792,39 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A2:H4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="87.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
